--- a/biology/Médecine/Maladie_de_Bernard_et_Soulier/Maladie_de_Bernard_et_Soulier.xlsx
+++ b/biology/Médecine/Maladie_de_Bernard_et_Soulier/Maladie_de_Bernard_et_Soulier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de Bernard et Soulier ou Bernard-Soulier (d'après Jean Bernard et Jean-Pierre Soulier) est une maladie sanguine se manifestant par des ménorragies, des épistaxis, des saignements gingivaux. Les saignements importants surviennent au cours des interventions chirurgicales.
 </t>
@@ -511,7 +523,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Syndrome des plaquettes sanguines géantes
 Dystrophie  hémorragipare de Jean Bernard et Soulier</t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,7 +584,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène GP1BA (en) 606672 situé au niveau du chromosome 17.
 Mutation du gène GP1BB (en) 138720 situé au niveau du chromosome 22.
@@ -602,9 +620,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1948, les deux hématologues ont décrit le cas d'un jeune homme avec une tendance à saigner, une thrombocytopénie et des thrombocytes extrêmement hypertrophiés (« thrombocytes géants »). Le patient s'est présenté à l'âge de 15 ans avec des saignements de nez importants et du sang dans les selles, puis a subi des saignements répétés au cours des années suivantes et est décédé à l'âge de 28 ans d'une hémorragie cérébrale. Sa sœur est morte en bas âge à l'âge de 31 mois. Les parents et les autres frères et sœurs n'ont pas été touchés[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1948, les deux hématologues ont décrit le cas d'un jeune homme avec une tendance à saigner, une thrombocytopénie et des thrombocytes extrêmement hypertrophiés (« thrombocytes géants »). Le patient s'est présenté à l'âge de 15 ans avec des saignements de nez importants et du sang dans les selles, puis a subi des saignements répétés au cours des années suivantes et est décédé à l'âge de 28 ans d'une hémorragie cérébrale. Sa sœur est morte en bas âge à l'âge de 31 mois. Les parents et les autres frères et sœurs n'ont pas été touchés.
 </t>
         </is>
       </c>
@@ -633,7 +653,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le temps de saignement est très allongé parfois supérieur à 20 minutes, 
 on note souvent une thrombopénie modérée et la présence de plaquettes géantes sur le frottis sanguin.
@@ -668,7 +690,9 @@
           <t>Prise en charge &amp; Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement dépend de la gravité des signes cliniques, les transfusions sanguines et plaquettaires sont à éviter dès que c'est possible pour prévenir les allo-immunisations.
 en cas de geste agressif prévisible; accouchement, chirurgie, transfusions plaquettaires en préventif.
@@ -703,8 +727,13 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mode de transmission
-Transmission autosomique récessive 
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique récessive 
 </t>
         </is>
       </c>
@@ -733,10 +762,12 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>(en) Lanza F. Encyclopédie Orphanet [1]
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 231200 [2]</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Lanza F. Encyclopédie Orphanet 
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 231200 </t>
         </is>
       </c>
     </row>
